--- a/data_exports_xlsx/cross-sectional_non-repeating.xlsx
+++ b/data_exports_xlsx/cross-sectional_non-repeating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Data Science/Data Science/R_Projects_Teaching/MED5711_Sistemas_de_Informacao/data_exports_xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Data Science/Data Science/R_Projects_Teaching/MED5711_REDCap/data_exports_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7766571A-67E7-1F4B-A564-9B7C474EC8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2350173-538A-6F45-8F47-FDF7DB2C1F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="2160" windowWidth="27980" windowHeight="17440" xr2:uid="{460B6DFD-A32A-124F-BBDB-E77B4E841D05}"/>
   </bookViews>
@@ -1117,7 +1117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D577F6D3-EA5B-1E49-B62C-08DDB91AA323}">
   <dimension ref="A1:BE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
